--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.133506333333334</v>
+        <v>1.104057333333333</v>
       </c>
       <c r="H2">
-        <v>3.400519000000001</v>
+        <v>3.312172</v>
       </c>
       <c r="I2">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="J2">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>14.84953788121322</v>
+        <v>21.64003564791689</v>
       </c>
       <c r="R2">
-        <v>133.645840930919</v>
+        <v>194.760320831252</v>
       </c>
       <c r="S2">
-        <v>0.00106848037225194</v>
+        <v>0.001494647434069068</v>
       </c>
       <c r="T2">
-        <v>0.00106848037225194</v>
+        <v>0.001494647434069068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.133506333333334</v>
+        <v>1.104057333333333</v>
       </c>
       <c r="H3">
-        <v>3.400519000000001</v>
+        <v>3.312172</v>
       </c>
       <c r="I3">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="J3">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>46.67035236027189</v>
+        <v>45.45783579442622</v>
       </c>
       <c r="R3">
-        <v>420.033171242447</v>
+        <v>409.1205221498361</v>
       </c>
       <c r="S3">
-        <v>0.003358108236224682</v>
+        <v>0.003139710060274904</v>
       </c>
       <c r="T3">
-        <v>0.003358108236224681</v>
+        <v>0.003139710060274904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.133506333333334</v>
+        <v>1.104057333333333</v>
       </c>
       <c r="H4">
-        <v>3.400519000000001</v>
+        <v>3.312172</v>
       </c>
       <c r="I4">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="J4">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>72.24000976422558</v>
+        <v>69.24821814913867</v>
       </c>
       <c r="R4">
-        <v>650.1600878780301</v>
+        <v>623.233963342248</v>
       </c>
       <c r="S4">
-        <v>0.005197941723292017</v>
+        <v>0.004782878977393388</v>
       </c>
       <c r="T4">
-        <v>0.005197941723292016</v>
+        <v>0.004782878977393388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.133506333333334</v>
+        <v>1.104057333333333</v>
       </c>
       <c r="H5">
-        <v>3.400519000000001</v>
+        <v>3.312172</v>
       </c>
       <c r="I5">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="J5">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>16.41558985351111</v>
+        <v>15.622584603668</v>
       </c>
       <c r="R5">
-        <v>147.7403086816</v>
+        <v>140.603261433012</v>
       </c>
       <c r="S5">
-        <v>0.001181163730327594</v>
+        <v>0.001079030384760343</v>
       </c>
       <c r="T5">
-        <v>0.001181163730327594</v>
+        <v>0.001079030384760344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.133506333333334</v>
+        <v>1.104057333333333</v>
       </c>
       <c r="H6">
-        <v>3.400519000000001</v>
+        <v>3.312172</v>
       </c>
       <c r="I6">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="J6">
-        <v>0.01621866215342843</v>
+        <v>0.01560234153736152</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>75.22840550886869</v>
+        <v>73.9275601698271</v>
       </c>
       <c r="R6">
-        <v>677.0556495798182</v>
+        <v>665.3480415284439</v>
       </c>
       <c r="S6">
-        <v>0.0054129680913322</v>
+        <v>0.005106074680863812</v>
       </c>
       <c r="T6">
-        <v>0.005412968091332199</v>
+        <v>0.005106074680863813</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.925971</v>
       </c>
       <c r="I7">
-        <v>0.1856561226810238</v>
+        <v>0.1833649623918776</v>
       </c>
       <c r="J7">
-        <v>0.1856561226810239</v>
+        <v>0.1833649623918775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>169.9836645310634</v>
+        <v>254.3223600917401</v>
       </c>
       <c r="R7">
-        <v>1529.852980779571</v>
+        <v>2288.901240825661</v>
       </c>
       <c r="S7">
-        <v>0.01223096709189045</v>
+        <v>0.0175656948593844</v>
       </c>
       <c r="T7">
-        <v>0.01223096709189045</v>
+        <v>0.0175656948593844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.925971</v>
       </c>
       <c r="I8">
-        <v>0.1856561226810238</v>
+        <v>0.1833649623918776</v>
       </c>
       <c r="J8">
-        <v>0.1856561226810239</v>
+        <v>0.1833649623918775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>534.2386801943247</v>
+        <v>534.2386801943248</v>
       </c>
       <c r="R8">
-        <v>4808.148121748922</v>
+        <v>4808.148121748924</v>
       </c>
       <c r="S8">
-        <v>0.03844049211845106</v>
+        <v>0.03689912925858596</v>
       </c>
       <c r="T8">
-        <v>0.03844049211845105</v>
+        <v>0.03689912925858595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.925971</v>
       </c>
       <c r="I9">
-        <v>0.1856561226810238</v>
+        <v>0.1833649623918776</v>
       </c>
       <c r="J9">
-        <v>0.1856561226810239</v>
+        <v>0.1833649623918775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>826.9362779981411</v>
+        <v>813.8327754340793</v>
       </c>
       <c r="R9">
-        <v>7442.42650198327</v>
+        <v>7324.494978906714</v>
       </c>
       <c r="S9">
-        <v>0.05950119048902682</v>
+        <v>0.05621030803065925</v>
       </c>
       <c r="T9">
-        <v>0.05950119048902682</v>
+        <v>0.05621030803065924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.925971</v>
       </c>
       <c r="I10">
-        <v>0.1856561226810238</v>
+        <v>0.1833649623918776</v>
       </c>
       <c r="J10">
-        <v>0.1856561226810239</v>
+        <v>0.1833649623918775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>187.9103673838222</v>
+        <v>183.602867009149</v>
       </c>
       <c r="R10">
-        <v>1691.1933064544</v>
+        <v>1652.425803082341</v>
       </c>
       <c r="S10">
-        <v>0.01352086111354876</v>
+        <v>0.01268119695030934</v>
       </c>
       <c r="T10">
-        <v>0.01352086111354876</v>
+        <v>0.01268119695030934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.925971</v>
       </c>
       <c r="I11">
-        <v>0.1856561226810238</v>
+        <v>0.1833649623918776</v>
       </c>
       <c r="J11">
-        <v>0.1856561226810239</v>
+        <v>0.1833649623918775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>861.1446462185515</v>
+        <v>868.8262757101518</v>
       </c>
       <c r="R11">
-        <v>7750.301815966963</v>
+        <v>7819.436481391366</v>
       </c>
       <c r="S11">
-        <v>0.06196261186810675</v>
+        <v>0.06000863329293859</v>
       </c>
       <c r="T11">
-        <v>0.06196261186810675</v>
+        <v>0.06000863329293859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.37424833333334</v>
+        <v>29.80147033333333</v>
       </c>
       <c r="H12">
-        <v>82.12274500000001</v>
+        <v>89.404411</v>
       </c>
       <c r="I12">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="J12">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>358.6172618905272</v>
+        <v>584.1226364817445</v>
       </c>
       <c r="R12">
-        <v>3227.555357014745</v>
+        <v>5257.1037283357</v>
       </c>
       <c r="S12">
-        <v>0.0258038673355306</v>
+        <v>0.04034454536044818</v>
       </c>
       <c r="T12">
-        <v>0.02580386733553059</v>
+        <v>0.04034454536044818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.37424833333334</v>
+        <v>29.80147033333333</v>
       </c>
       <c r="H13">
-        <v>82.12274500000001</v>
+        <v>89.404411</v>
       </c>
       <c r="I13">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="J13">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>1127.091907424354</v>
+        <v>1227.028981144516</v>
       </c>
       <c r="R13">
-        <v>10143.82716681918</v>
+        <v>11043.26083030064</v>
       </c>
       <c r="S13">
-        <v>0.08109852242139488</v>
+        <v>0.08474920041883462</v>
       </c>
       <c r="T13">
-        <v>0.08109852242139486</v>
+        <v>0.08474920041883462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.37424833333334</v>
+        <v>29.80147033333333</v>
       </c>
       <c r="H14">
-        <v>82.12274500000001</v>
+        <v>89.404411</v>
       </c>
       <c r="I14">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="J14">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>1744.600721438406</v>
+        <v>1869.195246026853</v>
       </c>
       <c r="R14">
-        <v>15701.40649294565</v>
+        <v>16822.75721424168</v>
       </c>
       <c r="S14">
-        <v>0.1255306153757032</v>
+        <v>0.1291027391868955</v>
       </c>
       <c r="T14">
-        <v>0.1255306153757031</v>
+        <v>0.1291027391868955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.37424833333334</v>
+        <v>29.80147033333333</v>
       </c>
       <c r="H15">
-        <v>82.12274500000001</v>
+        <v>89.404411</v>
       </c>
       <c r="I15">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="J15">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>396.4375142631112</v>
+        <v>421.695484047509</v>
       </c>
       <c r="R15">
-        <v>3567.937628368</v>
+        <v>3795.259356427581</v>
       </c>
       <c r="S15">
-        <v>0.02852517742995753</v>
+        <v>0.02912592582770517</v>
       </c>
       <c r="T15">
-        <v>0.02852517742995753</v>
+        <v>0.02912592582770517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.37424833333334</v>
+        <v>29.80147033333333</v>
       </c>
       <c r="H16">
-        <v>82.12274500000001</v>
+        <v>89.404411</v>
       </c>
       <c r="I16">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="J16">
-        <v>0.3916816980781915</v>
+        <v>0.4211490693625334</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N16">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O16">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P16">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q16">
-        <v>1816.770664231377</v>
+        <v>1995.503244895027</v>
       </c>
       <c r="R16">
-        <v>16350.93597808239</v>
+        <v>17959.52920405524</v>
       </c>
       <c r="S16">
-        <v>0.1307235155156054</v>
+        <v>0.1378266585686498</v>
       </c>
       <c r="T16">
-        <v>0.1307235155156054</v>
+        <v>0.1378266585686498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.835565</v>
+        <v>1.069331333333333</v>
       </c>
       <c r="H17">
-        <v>2.506695</v>
+        <v>3.207994</v>
       </c>
       <c r="I17">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="J17">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N17">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O17">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P17">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q17">
-        <v>10.94634741318833</v>
+        <v>20.95938994662822</v>
       </c>
       <c r="R17">
-        <v>98.517126718695</v>
+        <v>188.634509519654</v>
       </c>
       <c r="S17">
-        <v>0.0007876310665289849</v>
+        <v>0.001447636173667602</v>
       </c>
       <c r="T17">
-        <v>0.0007876310665289848</v>
+        <v>0.001447636173667601</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.835565</v>
+        <v>1.069331333333333</v>
       </c>
       <c r="H18">
-        <v>2.506695</v>
+        <v>3.207994</v>
       </c>
       <c r="I18">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="J18">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
         <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q18">
-        <v>34.40308344394833</v>
+        <v>44.02804699801356</v>
       </c>
       <c r="R18">
-        <v>309.627750995535</v>
+        <v>396.2524229821221</v>
       </c>
       <c r="S18">
-        <v>0.002475431875311747</v>
+        <v>0.003040956518895013</v>
       </c>
       <c r="T18">
-        <v>0.002475431875311747</v>
+        <v>0.003040956518895013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.835565</v>
+        <v>1.069331333333333</v>
       </c>
       <c r="H19">
-        <v>2.506695</v>
+        <v>3.207994</v>
       </c>
       <c r="I19">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="J19">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N19">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q19">
-        <v>53.25177458968334</v>
+        <v>67.07014863151068</v>
       </c>
       <c r="R19">
-        <v>479.2659713071501</v>
+        <v>603.631337683596</v>
       </c>
       <c r="S19">
-        <v>0.00383166643917222</v>
+        <v>0.004632442718012267</v>
       </c>
       <c r="T19">
-        <v>0.00383166643917222</v>
+        <v>0.004632442718012267</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.835565</v>
+        <v>1.069331333333333</v>
       </c>
       <c r="H20">
-        <v>2.506695</v>
+        <v>3.207994</v>
       </c>
       <c r="I20">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="J20">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N20">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O20">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P20">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q20">
-        <v>12.10076373866667</v>
+        <v>15.131206251686</v>
       </c>
       <c r="R20">
-        <v>108.906873648</v>
+        <v>136.180856265174</v>
       </c>
       <c r="S20">
-        <v>0.0008706956840980826</v>
+        <v>0.001045091559293682</v>
       </c>
       <c r="T20">
-        <v>0.0008706956840980825</v>
+        <v>0.001045091559293682</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.835565</v>
+        <v>1.069331333333333</v>
       </c>
       <c r="H21">
-        <v>2.506695</v>
+        <v>3.207994</v>
       </c>
       <c r="I21">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="J21">
-        <v>0.01195559834445515</v>
+        <v>0.01511159989209695</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N21">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O21">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P21">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q21">
-        <v>55.45467263881001</v>
+        <v>71.60231094865978</v>
       </c>
       <c r="R21">
-        <v>499.0920537492901</v>
+        <v>644.420798537938</v>
       </c>
       <c r="S21">
-        <v>0.003990173279344114</v>
+        <v>0.004945472922228382</v>
       </c>
       <c r="T21">
-        <v>0.003990173279344113</v>
+        <v>0.004945472922228382</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.57037233333334</v>
+        <v>25.812102</v>
       </c>
       <c r="H22">
-        <v>82.711117</v>
+        <v>77.436306</v>
       </c>
       <c r="I22">
-        <v>0.3944879187429009</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="J22">
-        <v>0.394487918742901</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N22">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O22">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P22">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q22">
-        <v>361.1865909553686</v>
+        <v>505.929167411294</v>
       </c>
       <c r="R22">
-        <v>3250.679318598317</v>
+        <v>4553.362506701646</v>
       </c>
       <c r="S22">
-        <v>0.02598874027215663</v>
+        <v>0.03494383023185003</v>
       </c>
       <c r="T22">
-        <v>0.02598874027215662</v>
+        <v>0.03494383023185003</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.57037233333334</v>
+        <v>25.812102</v>
       </c>
       <c r="H23">
-        <v>82.711117</v>
+        <v>77.436306</v>
       </c>
       <c r="I23">
-        <v>0.3944879187429009</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="J23">
-        <v>0.394487918742901</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
         <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q23">
-        <v>1135.167006713291</v>
+        <v>1062.772972742642</v>
       </c>
       <c r="R23">
-        <v>10216.50306041962</v>
+        <v>9564.956754683779</v>
       </c>
       <c r="S23">
-        <v>0.08167955633391351</v>
+        <v>0.07340426432526027</v>
       </c>
       <c r="T23">
-        <v>0.08167955633391351</v>
+        <v>0.07340426432526026</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.57037233333334</v>
+        <v>25.812102</v>
       </c>
       <c r="H24">
-        <v>82.711117</v>
+        <v>77.436306</v>
       </c>
       <c r="I24">
-        <v>0.3944879187429009</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="J24">
-        <v>0.394487918742901</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N24">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q24">
-        <v>1757.099989645699</v>
+        <v>1618.975768936956</v>
       </c>
       <c r="R24">
-        <v>15813.89990681129</v>
+        <v>14570.7819204326</v>
       </c>
       <c r="S24">
-        <v>0.1264299849624094</v>
+        <v>0.1118204248011279</v>
       </c>
       <c r="T24">
-        <v>0.1264299849624094</v>
+        <v>0.1118204248011279</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.57037233333334</v>
+        <v>25.812102</v>
       </c>
       <c r="H25">
-        <v>82.711117</v>
+        <v>77.436306</v>
       </c>
       <c r="I25">
-        <v>0.3944879187429009</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="J25">
-        <v>0.394487918742901</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N25">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O25">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P25">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q25">
-        <v>399.2778081809778</v>
+        <v>365.245295800014</v>
       </c>
       <c r="R25">
-        <v>3593.5002736288</v>
+        <v>3287.207662200126</v>
       </c>
       <c r="S25">
-        <v>0.02872954731183153</v>
+        <v>0.02522698913510521</v>
       </c>
       <c r="T25">
-        <v>0.02872954731183153</v>
+        <v>0.02522698913510521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.57037233333334</v>
+        <v>25.812102</v>
       </c>
       <c r="H26">
-        <v>82.711117</v>
+        <v>77.436306</v>
       </c>
       <c r="I26">
-        <v>0.3944879187429009</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="J26">
-        <v>0.394487918742901</v>
+        <v>0.3647720268161306</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N26">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O26">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P26">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q26">
-        <v>1829.786997151753</v>
+        <v>1728.375570817018</v>
       </c>
       <c r="R26">
-        <v>16468.08297436578</v>
+        <v>15555.38013735316</v>
       </c>
       <c r="S26">
-        <v>0.1316600898625898</v>
+        <v>0.1193765183227871</v>
       </c>
       <c r="T26">
-        <v>0.1316600898625898</v>
+        <v>0.1193765183227871</v>
       </c>
     </row>
   </sheetData>
